--- a/Testautomationdemo/src/bin/com/qa/testdata/ExcelUtil.xlsx
+++ b/Testautomationdemo/src/bin/com/qa/testdata/ExcelUtil.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22513"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3270B0D-4750-44AA-AAEC-0EF4C3901F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Workplace\Testautomationdemo\src\main\java\com\qa\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -38,24 +42,12 @@
   <si>
     <t>nithya@27</t>
   </si>
-  <si>
-    <t>Nithya</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>nithya</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,10 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,19 +400,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,32 +428,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
